--- a/wide/synthetic_dataset_6.xlsx
+++ b/wide/synthetic_dataset_6.xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>not a date</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,10 +72,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -383,308 +372,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1">
-        <v>45914</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1">
-        <v>45928</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45935</v>
-      </c>
-      <c r="E1" s="1">
-        <v>45942</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>45963</v>
-      </c>
-      <c r="I1" s="1">
-        <v>45970</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45977</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1">
-        <v>45998</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1">
-        <v>46012</v>
-      </c>
-      <c r="P1" s="1">
-        <v>46019</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="1">
-        <v>46033</v>
-      </c>
-      <c r="S1" s="1">
-        <v>46040</v>
-      </c>
-      <c r="T1" s="2" t="s">
+    <row r="1" spans="1:44">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>45855</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45862</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2">
+        <v>45876</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45883</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45897</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45904</v>
+      </c>
+      <c r="J1" s="2">
+        <v>45911</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2">
+        <v>45925</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45932</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45939</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45946</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45953</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="2">
+        <v>45967</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45974</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45981</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45988</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="2">
+        <v>46002</v>
+      </c>
+      <c r="X1" s="2">
+        <v>46009</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>46016</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="2">
+        <v>46030</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>46037</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>46044</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>46051</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="2">
+        <v>46065</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="2">
+        <v>46079</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>46086</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>46093</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>46100</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>46107</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>46114</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>46121</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>46128</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>46135</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>46142</v>
+      </c>
+      <c r="AR1" s="1"/>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+      <c r="D2">
+        <v>175</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>144</v>
+      </c>
+      <c r="H2">
+        <v>148</v>
+      </c>
+      <c r="I2">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <v>172</v>
+      </c>
+      <c r="K2">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>121</v>
+      </c>
+      <c r="M2">
+        <v>190</v>
+      </c>
+      <c r="N2">
+        <v>193</v>
+      </c>
+      <c r="P2">
+        <v>87</v>
+      </c>
+      <c r="Q2">
+        <v>89</v>
+      </c>
+      <c r="S2">
+        <v>71</v>
+      </c>
+      <c r="T2">
+        <v>87</v>
+      </c>
+      <c r="U2">
+        <v>111</v>
+      </c>
+      <c r="V2">
+        <v>165</v>
+      </c>
+      <c r="W2">
+        <v>58</v>
+      </c>
+      <c r="X2">
+        <v>120</v>
+      </c>
+      <c r="Y2">
+        <v>160</v>
+      </c>
+      <c r="Z2">
+        <v>169</v>
+      </c>
+      <c r="AA2">
+        <v>185</v>
+      </c>
+      <c r="AB2">
+        <v>89</v>
+      </c>
+      <c r="AC2">
+        <v>100</v>
+      </c>
+      <c r="AD2">
+        <v>66</v>
+      </c>
+      <c r="AE2">
+        <v>112</v>
+      </c>
+      <c r="AG2">
+        <v>183</v>
+      </c>
+      <c r="AH2">
+        <v>182</v>
+      </c>
+      <c r="AI2">
+        <v>200</v>
+      </c>
+      <c r="AK2">
+        <v>70</v>
+      </c>
+      <c r="AL2">
+        <v>179</v>
+      </c>
+      <c r="AM2">
+        <v>145</v>
+      </c>
+      <c r="AN2">
+        <v>175</v>
+      </c>
+      <c r="AO2">
+        <v>118</v>
+      </c>
+      <c r="AP2">
+        <v>142</v>
+      </c>
+      <c r="AQ2">
+        <v>186</v>
+      </c>
+      <c r="AR2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="U1" s="1">
-        <v>46054</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
         <v>1</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="1">
-        <v>46075</v>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>10</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>9</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>9</v>
+      </c>
+      <c r="AQ3">
+        <v>5</v>
+      </c>
+      <c r="AR3">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
+    <row r="4" spans="1:44">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4">
         <v>199</v>
       </c>
-      <c r="B2">
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>176</v>
+      </c>
+      <c r="K4">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>196</v>
+      </c>
+      <c r="M4">
+        <v>103</v>
+      </c>
+      <c r="N4">
+        <v>178</v>
+      </c>
+      <c r="O4">
+        <v>165</v>
+      </c>
+      <c r="P4">
+        <v>152</v>
+      </c>
+      <c r="Q4">
+        <v>131</v>
+      </c>
+      <c r="R4">
+        <v>130</v>
+      </c>
+      <c r="S4">
+        <v>192</v>
+      </c>
+      <c r="T4">
         <v>177</v>
       </c>
-      <c r="C2">
-        <v>138</v>
-      </c>
-      <c r="D2">
-        <v>192</v>
-      </c>
-      <c r="E2">
+      <c r="U4">
+        <v>71</v>
+      </c>
+      <c r="V4">
+        <v>54</v>
+      </c>
+      <c r="W4">
+        <v>55</v>
+      </c>
+      <c r="X4">
+        <v>156</v>
+      </c>
+      <c r="Y4">
+        <v>57</v>
+      </c>
+      <c r="AA4">
+        <v>128</v>
+      </c>
+      <c r="AB4">
+        <v>55</v>
+      </c>
+      <c r="AC4">
+        <v>57</v>
+      </c>
+      <c r="AD4">
+        <v>126</v>
+      </c>
+      <c r="AF4">
+        <v>51</v>
+      </c>
+      <c r="AI4">
         <v>189</v>
       </c>
-      <c r="F2">
-        <v>167</v>
-      </c>
-      <c r="H2">
-        <v>78</v>
-      </c>
-      <c r="I2">
-        <v>99</v>
-      </c>
-      <c r="J2">
+      <c r="AJ4">
+        <v>187</v>
+      </c>
+      <c r="AK4">
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>70</v>
+      </c>
+      <c r="AN4">
         <v>91</v>
       </c>
-      <c r="K2">
-        <v>117</v>
-      </c>
-      <c r="L2">
-        <v>68</v>
-      </c>
-      <c r="M2">
-        <v>153</v>
-      </c>
-      <c r="O2">
-        <v>195</v>
-      </c>
-      <c r="P2">
-        <v>176</v>
-      </c>
-      <c r="R2">
-        <v>73</v>
-      </c>
-      <c r="T2">
-        <v>151</v>
-      </c>
-      <c r="U2">
-        <v>178</v>
-      </c>
-      <c r="V2">
-        <v>145</v>
-      </c>
-      <c r="W2">
-        <v>100</v>
-      </c>
-      <c r="X2">
-        <v>104</v>
+      <c r="AO4">
+        <v>82</v>
+      </c>
+      <c r="AP4">
+        <v>140</v>
+      </c>
+      <c r="AQ4">
+        <v>194</v>
+      </c>
+      <c r="AR4">
+        <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="V3">
-        <v>6</v>
-      </c>
-      <c r="W3">
-        <v>6</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>110</v>
-      </c>
-      <c r="B4">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>77</v>
-      </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
-      <c r="E4">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>115</v>
-      </c>
-      <c r="G4">
-        <v>156</v>
-      </c>
-      <c r="H4">
-        <v>106</v>
-      </c>
-      <c r="I4">
-        <v>181</v>
-      </c>
-      <c r="J4">
-        <v>69</v>
-      </c>
-      <c r="M4">
-        <v>80</v>
-      </c>
-      <c r="N4">
-        <v>165</v>
-      </c>
-      <c r="O4">
-        <v>66</v>
-      </c>
-      <c r="P4">
-        <v>191</v>
-      </c>
-      <c r="Q4">
-        <v>164</v>
-      </c>
-      <c r="R4">
-        <v>164</v>
-      </c>
-      <c r="S4">
-        <v>127</v>
-      </c>
-      <c r="T4">
-        <v>102</v>
-      </c>
-      <c r="U4">
-        <v>157</v>
-      </c>
-      <c r="V4">
-        <v>115</v>
-      </c>
-      <c r="W4">
-        <v>154</v>
-      </c>
-      <c r="X4">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:44">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="Z5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
         <v>5</v>
       </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
+      <c r="AO5">
         <v>6</v>
       </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>5</v>
-      </c>
-      <c r="X5">
+      <c r="AR5">
         <v>1</v>
       </c>
     </row>
